--- a/Data/FollowUp.xlsx
+++ b/Data/FollowUp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4560A672-E7D2-7E44-96BF-B1A5620EDEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7B7B79-A584-844E-BEDE-6DC823015238}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Question:</t>
-  </si>
-  <si>
-    <t>Answers:</t>
-  </si>
-  <si>
-    <t>Domain:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: </t>
-  </si>
   <si>
     <t xml:space="preserve">To the best of your knowledge, which option best describes your gross (before taxes) household income from all sources, in 2019 (prior to the coronavirus (COVID-19) Pandemic)? </t>
   </si>
@@ -138,6 +126,18 @@
 No, and I DO NOT expect to receive a federal stimulus check   
 Unsure if I will receive a federal stimulus check   
 Other   </t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -510,107 +510,107 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FollowUp.xlsx
+++ b/Data/FollowUp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,12 +15,34 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
   <si>
     <t xml:space="preserve">To the best of your knowledge, which option best describes your gross (before taxes) household income from all sources, in 2019 (prior to the coronavirus (COVID-19) Pandemic)? </t>
   </si>
@@ -121,36 +143,429 @@
     <t xml:space="preserve">Have you received a federal stimulus check this year? (Also known as an economic impact payment) </t>
   </si>
   <si>
-    <t xml:space="preserve">• Yes, I have received a federal stimulus check  
-• No, but I expect to receive a federal stimulus check in the near future   
-No, and I DO NOT expect to receive a federal stimulus check   
-Unsure if I will receive a federal stimulus check   
-Other   </t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answers</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Source</t>
+    <t xml:space="preserve">• Yes, I have received a federal stimulus check  _x000D_
+• No, but I expect to receive a federal stimulus check in the near future   _x000D_
+• No, and I DO NOT expect to receive a federal stimulus check   _x000D_
+• Unsure if I will receive a federal stimulus check   _x000D_
+• Other   </t>
+  </si>
+  <si>
+    <t>Which of the following best describes what has happened to your family income during the coronavirus (COVID-19) pandemic? (Ex. increased, decreased, stayed the same)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Has increased _x000D_
+• Has stayed the same_x000D_
+• Has decreased_x000D_
+</t>
+  </si>
+  <si>
+    <t>Which of the following best describes your family financially at this time:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	No problems_x000D_
+•	Minor Problems _x000D_
+•	Major Problems _x000D_
+•	Extreme Problems_x000D_
+</t>
+  </si>
+  <si>
+    <t>Are you covered by any kind of health insurance or some other kind of health care plan?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Yes _x000D_
+•	No_x000D_
+•	I don’t know_x000D_
+</t>
+  </si>
+  <si>
+    <t>What type of health insurance or health care coverage do you have?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Insurance through a current or former employer or union (by you or another family member) _x000D_
+•	Insurance purchased from an insurance company (by you or another family member) _x000D_
+•	Medicare, for people 65 and older, or people with certain disabilities _x000D_
+•	Medicaid, Medical Assistance, or any kind of government-assistance plan for those with low incomes or a disability  _x000D_
+•	TRICARE or other military healthcare  _x000D_
+•	VA (enrolled for VA healthcare)  _x000D_
+•	Indian Health Service  _x000D_
+•	Any other type of health insurance or health coverage plan (Please Describe): [text entry]_x000D_
+•	I don't know_x000D_
+</t>
+  </si>
+  <si>
+    <t>Is your child(ren) that are between 0 and 5 years of age covered by any kind of health insurance or some other kind of health care plan?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Yes_x000D_
+•	No_x000D_
+•	I don’t know_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What type of health insurance or health care coverage does your child have? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Insurance through a current or former employer or union (by you or another family member)  _x000D_
+•	Insurance purchased directly from an insurance company (by this person or another family member)  _x000D_
+•	Medicare, for people 65 and older, or people with certain disabilities  _x000D_
+•	Medicaid, Medical Assistance or any kind of government-assistance plan for those with low incomes or a disability, to include CHIP  _x000D_
+•	TRICARE or other military health care  _x000D_
+•	VA (enrolled for VA health care)  _x000D_
+•	Indian Health Service _x000D_
+•	Any other type of health insurance or health coverage plan (Please describe)  _x000D_
+•	I don't know _x000D_
+•	Not applicable  _x000D_
+</t>
+  </si>
+  <si>
+    <t>Since the coronavirus (COVID-19) pandemic, have you delayed getting medical care (including physical or mental health visits) for any of the following reasons? Indicate how many times each of these barriers has delayed you getting medical care (including physical or mental health visits), leave blank or select 0 if a listed barrier has not delayed you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Cost [Scale 0-10] _x000D_
+•	Unable to get time away from work [Scale 0-10] _x000D_
+•	Inability to find childcare [Scale 0-10] _x000D_
+•	Concern over exposure to coronavirus (COVID-19) [Scale 0-10] _x000D_
+•	Caring for family members [Scale 0-10] _x000D_
+•	Other, please describe: [Scale 0-10] _x000D_
+</t>
+  </si>
+  <si>
+    <t>Support Family Physical Health</t>
+  </si>
+  <si>
+    <t>Have you missed a well-baby/well-child checkup since the coronavirus (COVID-19) pandemic began?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Yes_x000D_
+•	No_x000D_
+•	Not applicable_x000D_
+</t>
+  </si>
+  <si>
+    <t>[If yes missed] [asked for up to five children] In regards to your oldest child in the 0-5 age range that missed a well-baby/well-child checkup: Which well-baby/well-child visit did they miss?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	First visit [3-5 days old]_x000D_
+•	1 month old_x000D_
+•	2 months old_x000D_
+•	4 months old_x000D_
+•	6 months old_x000D_
+•	9 months old_x000D_
+•	1 year old (12 months)_x000D_
+•	15 months old_x000D_
+•	18 months old_x000D_
+•	2 years old (24 months)_x000D_
+•	2.5 years old (30 months)_x000D_
+•	3 years old_x000D_
+•	4 years old_x000D_
+•	5 years old_x000D_
+</t>
+  </si>
+  <si>
+    <t>[If yes missed] [asked for up to five children] Did they miss a scheduled vaccine at this visit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Yes_x000D_
+•	No_x000D_
+</t>
+  </si>
+  <si>
+    <t>What prevented you from going to a well-baby checkup? Select all that apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Cost_x000D_
+•	Unable to get time away from work_x000D_
+•	Inability to find childcare_x000D_
+•	Concern over exposure to coronavirus (COVID-19)_x000D_
+•	Caring for family members_x000D_
+•	Vaccine hesitancy_x000D_
+•	Other, please describe: _x000D_
+</t>
+  </si>
+  <si>
+    <t>Have you been suspected or diagnosed with coronavirus (COVID-19)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Yes, suspected_x000D_
+•	Yes, diagnosed with a positive test result_x000D_
+•	Yes, diagnosed by a healthcare professional or public health official without a test_x000D_
+•	No_x000D_
+</t>
+  </si>
+  <si>
+    <t>In the past week, how often have you been bothered by the following problems?</t>
+  </si>
+  <si>
+    <t>Support Strong Parent Mental Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeling nervous, anxious, or on edge? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Not at all_x000D_
+•	Several days_x000D_
+•	More than half of the days_x000D_
+•	Nearly every day_x000D_
+</t>
+  </si>
+  <si>
+    <t>Not being able to stop or control worrying?</t>
+  </si>
+  <si>
+    <t>Little interest or pleasure in doing things</t>
+  </si>
+  <si>
+    <t>Feeling down, depressed, or hopeless</t>
+  </si>
+  <si>
+    <t>Stress means a situation in which a person feels tense, restless, nervous or anxious or is unable to sleep at night because his/her mind is troubled all the time. Have you felt this kind of stress in the past week?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	1- Not at all _x000D_
+•	2_x000D_
+•	3_x000D_
+•	4_x000D_
+•	5 - Very much_x000D_
+</t>
+  </si>
+  <si>
+    <t>Answer the following question in regards to how you feel about parenting</t>
+  </si>
+  <si>
+    <t>Since the coronavirus (COVID-19) pandemic began</t>
+  </si>
+  <si>
+    <t>I often felt like I could not handle things very well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Strongly agree (SA) _x000D_
+•	Agree (A)_x000D_
+•	Not sure (NS)_x000D_
+•	Disagree (D)_x000D_
+•	Strongly Disagree (SD)_x000D_
+</t>
+  </si>
+  <si>
+    <t>being a parent is manageable, and any problems are easily solved</t>
+  </si>
+  <si>
+    <t>In the last week, when you felt overwhelmed or stressed as a parent, did you get the support you needed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	1 – No I did not feel supported_x000D_
+•	2_x000D_
+•	3_x000D_
+•	4_x000D_
+•	5 – Yes, I felt very supported_x000D_
+</t>
+  </si>
+  <si>
+    <t>Do you feel you could benefit from additional resources and supports on parenting and how best to support your child’s development?</t>
+  </si>
+  <si>
+    <t>Since the coronavirus (COVID-19) pandemic began, please describe how often… I felt lonely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Never_x000D_
+•	Rarely_x000D_
+•	Sometimes_x000D_
+•	Usually _x000D_
+•	Always_x000D_
+</t>
+  </si>
+  <si>
+    <t>[repeated for each child they have in 0-5 age range] fill out this form to reflect your view of the child’s (within the 0-5 age range) behavior even if other people might not agree. Below is a list of items that describe children. Please select the answer which best fits your child's behavior in the last week.</t>
+  </si>
+  <si>
+    <t>Support Strong Child Socio-Emotional Health</t>
+  </si>
+  <si>
+    <t>fussy or defiant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Not True _x000D_
+•	Somewhat / Sometimes True_x000D_
+•	Often True / Very True_x000D_
+</t>
+  </si>
+  <si>
+    <t>too fearful or anxious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How old is this child? </t>
+  </si>
+  <si>
+    <t>List from 0 months to less than 6 years (71 months)</t>
+  </si>
+  <si>
+    <t>[repeated for each child they have in 0-5 age range] These questions are about your child's (within the 0-5 age range) development and behavior. Think about what you would expect of other children the same age, and tell us how much each statement applies to your child.</t>
+  </si>
+  <si>
+    <t>Do you have any concerns about your child's learning or development?</t>
+  </si>
+  <si>
+    <t>•	Not at all _x000D_
+•	Somewhat _x000D_
+•	Very Much</t>
+  </si>
+  <si>
+    <t>Do you have any concerns about your child's behavior?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This week, have you used any non-parental care for your child(ren) under the age of 5?  _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes _x000D_
+• No _x000D_
+• Unsure </t>
+  </si>
+  <si>
+    <t>Sustain Child Care and Early Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you expect your need for non-parental care for your child under the age of 5 to change in the next month?  _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes, I will need more non-parental care _x000D_
+• Yes, I will need less non-parental care  _x000D_
+• Maybe I will need more non-parental care   _x000D_
+• Maybe I will need less non-parental care   _x000D_
+• No, I expect to have the same need for non-parental care _x000D_
+• Not Applicable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently, which of the following types of childcare do you use for your child in the age range 0-5?  _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Any type of paid or unpaid center-based care, such as a pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school. Please do not include kindergarten. _x000D_
+• At least five hours of unpaid care by a relative, friend or neighbor for any child age 5 or under _x000D_
+• At least five hours of paid care by a relative, friend or neighbor for any child age 5 or under _x000D_
+• At least 5 hours of paid care from a home-based child care provider. Please include home-based care where the provider is paid to care for your child even if you are not making the payment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many hours this week was your child cared for by... [based on answers above] _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Answer choices 1 to “more than 100 hours” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[If cared for by a relative, friend or neighbor] What is the relationship of the relative, friend, or neighbor currently providing care to your child(ren) in the age range 0-5? Select all that apply. _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• other parent/step parent _x000D_
+• sibling 15 years or older _x000D_
+• grandparent _x000D_
+• other relative _x000D_
+• friend of parent _x000D_
+• neighbor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the next month, what are you plans for your child(rens)’s (in the age range 0-5) childcare? Select all that apply. _x000D_
+</t>
+  </si>
+  <si>
+    <t>• In the next month, I plan to use the same arrangement I am using now for childcare _x000D_
+• In the next month, I plan to use a different arrangement for childcare _x000D_
+• In the next month, I plan to use the childcare arrangement I used prior to COVID _x000D_
+• In the next month, I do not know what I am going to do for childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you currently have access to free food for your household? Examples of free food include food pantries and programs, SNAP etc. _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes I have access to free food resources _x000D_
+• No, but I know where/how I can access free food resources  _x000D_
+• No, I am not eligible for free food resources  _x000D_
+• Unsure </t>
+  </si>
+  <si>
+    <t>Meet Basic Needs for Health and Well-being</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you currently get free or reduced lunches for your child(ren)? _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes, my child(ren) receive(s) free or reduced lunches  _x000D_
+• No, my child does not receive free or reduced lunches, but they were available _x000D_
+• No, free or reduced lunches are not available for my children  _x000D_
+• No, but I plan on getting free or reduced lunches for my children soon  _x000D_
+• No, I don't know how to access this resource </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the past month, how hard has it been for you to pay for the very basics like food, housing, medical care, and heating? _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Very hard _x000D_
+• Hard _x000D_
+• Somewhat hard  _x000D_
+• Not very hard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of these needs have been hard to pay for in the past month? _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Food _x000D_
+• Housing _x000D_
+• Utilities (electric, water, trash) _x000D_
+• Healthcare _x000D_
+• Social _x000D_
+• Emotional _x000D_
+• Childcare _x000D_
+• Other (please specify) [text entry] _x000D_
+• None of the above </t>
+  </si>
+  <si>
+    <t>What are the biggest challenges and concerns for you and your family right now? </t>
+  </si>
+  <si>
+    <t>Open Ended Questions</t>
+  </si>
+  <si>
+    <t>What is helping you and your family the most right now? </t>
+  </si>
+  <si>
+    <t>What is on your mind the most when you think about your community re-opening? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What concerns do you have about your place of employment and/or your child’s child care setting re-opening? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there anything else you would like to tell us about you and your family’s experiences during the COVID-19 pandemic? </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -181,6 +596,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,122 +929,675 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.95">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="48">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="225">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="135">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="224" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
+    <row r="13" spans="1:4" ht="60">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="285">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="315">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="150">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="225">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45">
+      <c r="A22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="135">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="120">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="75">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="75">
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="75">
+      <c r="A29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="75">
+      <c r="A30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="90">
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30">
+      <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="90">
+      <c r="A34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="90">
+      <c r="A35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="90">
+      <c r="A36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="90">
+      <c r="A37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="90">
+      <c r="A38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="90">
+      <c r="A39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="60">
+      <c r="A40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="60">
+      <c r="A41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30">
+      <c r="A42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="75">
+      <c r="A43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45">
+      <c r="A44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30">
+      <c r="A45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="45">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30">
+      <c r="A47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="47.25">
+      <c r="A48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="165">
+      <c r="A49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="270">
+      <c r="A50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="47.25">
+      <c r="A51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="90">
+      <c r="A52" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="150">
+      <c r="A53" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="105">
+      <c r="A54" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="165">
+      <c r="A55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="63">
+      <c r="A56" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="135">
+      <c r="A57" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="31.5">
+      <c r="A58" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75">
+      <c r="A59" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="31.5">
+      <c r="A60" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="47.25">
+      <c r="A61" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="47.25">
+      <c r="A62" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FollowUp.xlsx
+++ b/Data/FollowUp.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877A14CC-B610-A042-9BFE-EB0C2EE84FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D5DB95-C67B-A249-8CF7-10846F3F0584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="520" windowWidth="22020" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33920" yWindow="1500" windowWidth="22020" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="212">
   <si>
     <t>Question</t>
   </si>
@@ -423,75 +423,6 @@
     <t xml:space="preserve">Answer the following question in regards to how you feel about parenting </t>
   </si>
   <si>
-    <t>Who do you turn to for social support? Again, think about who you turned to for social support in this last week. Then think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply</t>
-  </si>
-  <si>
-    <t>Health or mental health professional(s) (e.g., doctor, counselor)</t>
-  </si>
-  <si>
-    <t>Member(s) of a parent group / parenting support group</t>
-  </si>
-  <si>
-    <t>Religious and/or spiritual figure (e.g., God, Allah, Buddha)</t>
-  </si>
-  <si>
-    <t>Member(s) of a religious group</t>
-  </si>
-  <si>
-    <t>Childcare provider</t>
-  </si>
-  <si>
-    <t>Babysitter/Nanny</t>
-  </si>
-  <si>
-    <t>Co-worker(s)</t>
-  </si>
-  <si>
-    <t>Neighbor(s)</t>
-  </si>
-  <si>
-    <t>Friend(s)</t>
-  </si>
-  <si>
-    <t>Other relative(s)</t>
-  </si>
-  <si>
-    <t>My parent(s)</t>
-  </si>
-  <si>
-    <t>My partner/spouse</t>
-  </si>
-  <si>
-    <t>My child(ren)</t>
-  </si>
-  <si>
-    <t>• In the last week
-• In a typical week prior to the COVID-19 pandemic</t>
-  </si>
-  <si>
-    <t>Social Support 2.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each child you say you rely on for social support, please select their age and what you rely on them for: </t>
-  </si>
-  <si>
-    <t>What age is the [asked of all the children] you rely on for social support?</t>
-  </si>
-  <si>
-    <t>Single select from 1-18</t>
-  </si>
-  <si>
-    <t>What do you rely on this child for? Select all that apply.</t>
-  </si>
-  <si>
-    <t>• Emotional Support
-• Taking care of other chidren in the household
-• Other household responsibilities</t>
-  </si>
-  <si>
-    <t>Do you have another child you rely on for social support?</t>
-  </si>
-  <si>
     <t>Instructions: In these next set of questions, we would like to know.</t>
   </si>
   <si>
@@ -881,12 +812,207 @@
   <si>
     <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information?</t>
   </si>
+  <si>
+    <r>
+      <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> prior to the coronavirus (COVID-19) pandemic.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>“The food that we bought just didn’t last, and we didn’t have money to get more."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Often true
+•	Sometimes true
+•	Never true
+•	Don’t know </t>
+  </si>
+  <si>
+    <t>“We couldn’t afford to eat balanced meals.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Yes
+•	No
+•	Don’t know </t>
+  </si>
+  <si>
+    <t>How often did this happen—almost every month, some months but not every month, or in only 1 or 2 months?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Almost every month
+•	Some months but not every month
+•	Only 1 or 2 months
+•	Don’t know </t>
+  </si>
+  <si>
+    <t>Prior to the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
+  </si>
+  <si>
+    <t>Since the coronavirus (COVID-19) pandemic, have you ever ate less than you felt you should because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t>Since the coronavirus (COVID-19) pandemic, have you ever been hungry but didn't eat because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Yes
+•	No
+•	Not applicable </t>
+  </si>
+  <si>
+    <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
+  </si>
+  <si>
+    <t>In the last 30 days, you were evicted from the place you rented.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the last 30 days, your mortgage (for the home you lived in and owned) was foreclosed on. </t>
+  </si>
+  <si>
+    <t>In the last 30 days, your household was not able to pay the full amount of the gas, oil, or electricity bills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the last 30 days, the gas or electric company turned off service, or the oil company would not deliver oil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How worried are you about your household not being able to pay the full amount of the rent or mortgage or being late with a payment because your household cannot afford to pay in the next month? </t>
+  </si>
+  <si>
+    <t>•	Not at all worried
+•	Slightly worried
+•	Somewhat worried
+•	Very worried
+•	Extremely worried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How worried are you about having enough money to pay for food to feed your household in the next month? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you rent the place you currently live, how worried are you about being evicted in the next month? </t>
+  </si>
+  <si>
+    <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How worried are you about the gas or electric company turning off service, or the oil company not delivering oil in the next month?  </t>
+  </si>
+  <si>
+    <t>Material Hardship</t>
+  </si>
+  <si>
+    <t>U.S. Household Food Security Survey Module: Six-Item Short Form Economic Research Service, USDA
+September 2012</t>
+  </si>
+  <si>
+    <t>Provided by Urban Institute
+Modified from the U.S. Census Bureau's Household Pulse Survey</t>
+  </si>
+  <si>
+    <t>Provided by Urban Institute</t>
+  </si>
+  <si>
+    <t>Modified by RAPID Team and RISER Team 
+Development and reliability of a telephone-administered perceived racism scale (TPRS): A tool for epidemiological use. Ethnicity &amp; Disease, 11, 251–262.</t>
+  </si>
+  <si>
+    <t>Modified by RAPID Team and RISER Team 
+Perceived Discrimination, Race and Health in South Africa: Findings from the South Africa Stress and Health Study. Social Science and Medicine, 2008; 67: 441-452.</t>
+  </si>
+  <si>
+    <t>Modified by RAPID Team and RISER Team 
+Race in America 2019: Public has negative views of the country’s racial progress; more than half say Trump has made race relations worse. Washington, DC: Pew Research Center.</t>
+  </si>
+  <si>
+    <t>Who do you turn to for social support? Think about who you turned to for social support in a typical week prior to the coronavirus (COVID-19) pandemic. Please select all that apply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+•	My partner/spouse
+•	My child(ren)
+•	My parent(s)
+•	Other relative(s)
+•	Friend(s)
+•	Neighbor(s)
+•	Co-worker(s)
+•	Member(s) of a religious group
+•	Religious and/or spiritual figure (e.g., God, Allah, Buddha)
+•	Member(s) of a parent group / parenting support group
+•	Health or mental health professional(s) (e.g., doctor, counselor)
+•	Babysitter/Nanny
+•	Childcare provider</t>
+  </si>
+  <si>
+    <t>Who do you turn to for social support? Think about who you turned to for social support in this last week. Please select all that apply.</t>
+  </si>
+  <si>
+    <t>What age is the oldest child you rely on for social support?</t>
+  </si>
+  <si>
+    <t>•Answer choices 1 - 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you rely on this child for? Select all that apply. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Emotional Support
+•	Taking Care of other children in the household
+•	Other household responsibilities </t>
+  </si>
+  <si>
+    <t>Do you have another child you rely on for social support? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Yes
+•	No </t>
+  </si>
+  <si>
+    <t>Social Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed by RAPID Team </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,6 +1023,23 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -922,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -931,15 +1074,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -947,6 +1081,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,18 +1399,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="60.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="36.83203125" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1714,7 +1852,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1728,7 +1866,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1740,7 +1878,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -1754,7 +1892,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -1768,7 +1906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1782,7 +1920,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -1796,7 +1934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -1808,7 +1946,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -1822,7 +1960,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
@@ -1836,7 +1974,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
@@ -1850,7 +1988,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>80</v>
       </c>
@@ -1864,7 +2002,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>83</v>
       </c>
@@ -1878,981 +2016,1258 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="380" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="380" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="C60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+      <c r="D60" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="C63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="192" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="192" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="B67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="C68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C69" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="C72" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D73" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>61</v>
+        <v>122</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="D82" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="49" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B85" s="3"/>
       <c r="C85" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B110" s="2"/>
+      <c r="C110" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="D110" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+      <c r="C111" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B112" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D145" s="8" t="s">
+      <c r="D127" s="5" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Data/FollowUp.xlsx
+++ b/Data/FollowUp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D5DB95-C67B-A249-8CF7-10846F3F0584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFE574E-598F-9F44-BE76-7FFC6139E93D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33920" yWindow="1500" windowWidth="22020" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36980" yWindow="5360" windowWidth="22020" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="230">
   <si>
     <t>Question</t>
   </si>
@@ -1006,6 +1006,70 @@
   </si>
   <si>
     <t xml:space="preserve">Developed by RAPID Team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Team modified from the National Survey of Early Care and Education (NSECE) </t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from NHIS</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified</t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>GAD-2</t>
+  </si>
+  <si>
+    <t>PHQ-2</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from single item Stress measure</t>
+  </si>
+  <si>
+    <t>PSIIV-SF</t>
+  </si>
+  <si>
+    <t>PSOC</t>
+  </si>
+  <si>
+    <t>NIH Toolbox Item Bank v2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Team Modified from U.S. Census </t>
+  </si>
+  <si>
+    <t>Do you currently have access to free food for your household?
+Examples of free food include food pantries and programs, SNAP etc.</t>
+  </si>
+  <si>
+    <t>Do you currently get free or reduced lunches for your child(ren)? Select all that apply
+Example: School Lunch and Breakfast Assistance Program</t>
+  </si>
+  <si>
+    <t>•	Yes, I have access to free food resources
+•	No, but I know where/how I can access free food resources
+•	No, I am not eligible for free food resources
+•	Unsure</t>
+  </si>
+  <si>
+    <t>•	Yes, my child(ren) receive(s) free or reduced lunches
+•	No, my child does not receive free or reduced lunches, but they are available
+•	No, free or reduced lunches are not available for my children
+•	No, but I plan on getting free or reduced lunches for my children soon
+•	No, I don't know how to access this resource
+•	Does not apply</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from Economic Harship Questionnaire</t>
+  </si>
+  <si>
+    <t>IOM Financial Strain</t>
+  </si>
+  <si>
+    <t>CBCL</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="98" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1444,8 +1508,11 @@
       <c r="D2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1456,8 +1523,11 @@
       <c r="D3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1470,8 +1540,11 @@
       <c r="D4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1483,6 +1556,9 @@
       </c>
       <c r="D5" t="s">
         <v>61</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -1498,8 +1574,11 @@
       <c r="D6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1591,11 @@
       <c r="D7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1525,6 +1607,9 @@
       </c>
       <c r="D8" t="s">
         <v>61</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="128" x14ac:dyDescent="0.2">
@@ -1540,6 +1625,9 @@
       <c r="D9" t="s">
         <v>61</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1554,8 +1642,11 @@
       <c r="D10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="E10" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1659,11 @@
       <c r="D11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1578,6 +1672,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1634,7 +1731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1648,7 +1745,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1662,7 +1759,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1674,7 +1771,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="176" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1688,7 +1785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="192" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1702,7 +1799,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -1713,8 +1810,11 @@
       <c r="D22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1727,8 +1827,11 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="E23" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1741,8 +1844,11 @@
       <c r="D24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E24" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1755,8 +1861,11 @@
       <c r="D25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1769,8 +1878,11 @@
       <c r="D26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="E26" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -1783,8 +1895,11 @@
       <c r="D27" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E27" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
@@ -1797,8 +1912,11 @@
       <c r="D28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -1811,8 +1929,11 @@
       <c r="D29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="E29" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -1825,8 +1946,11 @@
       <c r="D30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E30" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -1839,8 +1963,11 @@
       <c r="D31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="E31" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -1851,6 +1978,7 @@
       <c r="D32" t="s">
         <v>61</v>
       </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
@@ -1865,6 +1993,9 @@
       <c r="D33" t="s">
         <v>61</v>
       </c>
+      <c r="E33" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -1891,6 +2022,9 @@
       <c r="D35" t="s">
         <v>61</v>
       </c>
+      <c r="E35" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -1905,6 +2039,9 @@
       <c r="D36" t="s">
         <v>61</v>
       </c>
+      <c r="E36" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
@@ -1919,6 +2056,9 @@
       <c r="D37" t="s">
         <v>61</v>
       </c>
+      <c r="E37" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
@@ -1933,8 +2073,11 @@
       <c r="D38" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E38" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -1959,6 +2102,9 @@
       <c r="D40" t="s">
         <v>61</v>
       </c>
+      <c r="E40" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
@@ -1973,6 +2119,9 @@
       <c r="D41" t="s">
         <v>61</v>
       </c>
+      <c r="E41" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -1987,6 +2136,9 @@
       <c r="D42" t="s">
         <v>61</v>
       </c>
+      <c r="E42" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -2001,6 +2153,9 @@
       <c r="D43" t="s">
         <v>61</v>
       </c>
+      <c r="E43" s="2" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
@@ -2015,6 +2170,9 @@
       <c r="D44" t="s">
         <v>61</v>
       </c>
+      <c r="E44" s="2" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
@@ -2029,7 +2187,7 @@
       <c r="D45" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2112,7 +2270,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="380" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>86</v>
       </c>
@@ -2129,7 +2287,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="380" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>88</v>
       </c>
@@ -2146,7 +2304,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>89</v>
       </c>
@@ -2163,7 +2321,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>91</v>
       </c>
@@ -2180,7 +2338,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>92</v>
       </c>
@@ -2197,7 +2355,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
@@ -2214,7 +2372,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -2231,7 +2389,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -2273,8 +2431,11 @@
       <c r="D60" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E60" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>101</v>
       </c>
@@ -2316,12 +2477,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>98</v>
@@ -2330,12 +2491,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>98</v>
@@ -2344,12 +2505,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>98</v>
@@ -2360,10 +2521,10 @@
     </row>
     <row r="67" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>98</v>
@@ -2372,12 +2533,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>98</v>
@@ -2386,12 +2547,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>98</v>
@@ -2400,12 +2561,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>98</v>
@@ -2416,10 +2577,10 @@
     </row>
     <row r="71" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>98</v>
@@ -2428,12 +2589,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>98</v>
@@ -2442,40 +2603,40 @@
         <v>61</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>122</v>
@@ -2484,12 +2645,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>122</v>
@@ -2500,10 +2661,10 @@
     </row>
     <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>122</v>
@@ -2514,10 +2675,10 @@
     </row>
     <row r="78" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>122</v>
@@ -2526,12 +2687,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>122</v>
@@ -2540,12 +2701,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>122</v>
@@ -2556,113 +2717,119 @@
     </row>
     <row r="81" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="D83" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="D84" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="D85" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="49" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="D86" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="50" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" ht="272" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="272" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="B87" s="3"/>
       <c r="C87" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>194</v>
@@ -2674,12 +2841,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>194</v>
@@ -2691,9 +2858,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="240" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>175</v>
+    <row r="90" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>172</v>
@@ -2704,29 +2871,33 @@
       <c r="D90" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B91" s="2"/>
+    <row r="91" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="C91" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" ht="240" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>168</v>
+      <c r="E91" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>194</v>
@@ -2738,29 +2909,25 @@
         <v>195</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="240" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>169</v>
-      </c>
+    <row r="93" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="240" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>177</v>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>194</v>
@@ -2772,12 +2939,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="240" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>173</v>
+    <row r="95" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>194</v>
@@ -2789,9 +2956,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>172</v>
@@ -2806,12 +2973,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>194</v>
@@ -2823,12 +2990,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>194</v>
@@ -2837,15 +3004,15 @@
         <v>62</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>194</v>
@@ -2854,12 +3021,12 @@
         <v>62</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>181</v>
@@ -2871,12 +3038,12 @@
         <v>62</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>181</v>
@@ -2888,12 +3055,12 @@
         <v>62</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>181</v>
@@ -2910,7 +3077,7 @@
     </row>
     <row r="103" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>181</v>
@@ -2925,12 +3092,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>194</v>
@@ -2942,12 +3109,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>194</v>
@@ -2961,7 +3128,7 @@
     </row>
     <row r="106" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>188</v>
@@ -2978,7 +3145,7 @@
     </row>
     <row r="107" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>188</v>
@@ -2995,7 +3162,7 @@
     </row>
     <row r="108" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>188</v>
@@ -3012,7 +3179,7 @@
     </row>
     <row r="109" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>188</v>
@@ -3027,52 +3194,61 @@
         <v>197</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B110" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="C110" s="1" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="E112" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>146</v>
@@ -3080,13 +3256,16 @@
       <c r="D113" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E113" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>146</v>
@@ -3094,38 +3273,45 @@
       <c r="D114" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="E114" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="B117" s="2"/>
       <c r="C117" s="1" t="s">
         <v>154</v>
       </c>
@@ -3133,13 +3319,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>157</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B118" s="2"/>
       <c r="C118" s="1" t="s">
         <v>154</v>
       </c>
@@ -3147,12 +3331,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>154</v>
@@ -3160,13 +3344,16 @@
       <c r="D119" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E119" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>154</v>
@@ -3174,40 +3361,43 @@
       <c r="D120" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="E120" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>160</v>
-      </c>
+      <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
         <v>160</v>
       </c>
@@ -3215,9 +3405,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>160</v>
@@ -3228,10 +3418,13 @@
       <c r="D124" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="E124" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>160</v>
@@ -3242,10 +3435,13 @@
       <c r="D125" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="E125" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>160</v>
@@ -3256,19 +3452,59 @@
       <c r="D126" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="E126" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>61</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FollowUp.xlsx
+++ b/Data/FollowUp.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFE574E-598F-9F44-BE76-7FFC6139E93D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5001DAC-DB08-BA46-B4C5-64A6C8780CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36980" yWindow="5360" windowWidth="22020" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36700" yWindow="3460" windowWidth="22020" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="235">
   <si>
     <t>Question</t>
   </si>
@@ -288,28 +288,6 @@
 • Caring for family members
 • Vaccine hesistancy
 • Other, please describe [Free text]</t>
-  </si>
-  <si>
-    <t>[If missed a well baby check up since pandemic]
-In regards to your oldest child in the 0-5 age range that missed a well-baby/well-child checkup: 
-Which well-baby/well-child visit did they miss?
-[Asked of all children]</t>
-  </si>
-  <si>
-    <t>• First visit (3-5 days old)
-• 1 month old
-• 2 months old
-• 4 months old
-• 6 months old
-• 9 months old
-• 12 months old
-• 15 months old
-• 18 months old
-• 2 years old (24 months)
-• 2.5 years old (30 months)
-• 3 years old
-• 4 years old
-• 5 years old</t>
   </si>
   <si>
     <t xml:space="preserve">[If missed a well baby check up since pandemic]
@@ -981,27 +959,6 @@
     <t>Who do you turn to for social support? Think about who you turned to for social support in this last week. Please select all that apply.</t>
   </si>
   <si>
-    <t>What age is the oldest child you rely on for social support?</t>
-  </si>
-  <si>
-    <t>•Answer choices 1 - 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What do you rely on this child for? Select all that apply. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Emotional Support
-•	Taking Care of other children in the household
-•	Other household responsibilities </t>
-  </si>
-  <si>
-    <t>Do you have another child you rely on for social support? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">•	Yes
-•	No </t>
-  </si>
-  <si>
     <t>Social Support</t>
   </si>
   <si>
@@ -1070,6 +1027,60 @@
   </si>
   <si>
     <t>CBCL</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+If  your child has already begun the 2020-2021 school year, how are they reacting to online learning?</t>
+  </si>
+  <si>
+    <t>•	Very well
+•	Somewhat well
+•	Well
+•	Not well 
+•	Very poorly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Modified 
+U.S. Census Bureau Household Pulse Survey </t>
+  </si>
+  <si>
+    <t>If you have a child that was due to be entering kindergarten this fall, have you decided to wait until next fall (2021) instead because of the pandemic?</t>
+  </si>
+  <si>
+    <t>•	Yes
+•	No 
+•	Not applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If yes, why? Select all that apply. </t>
+  </si>
+  <si>
+    <t>•	Safety
+•	Uncertain about the plan for school (in person/online)
+•	Not able to manage online instruction for my child along with my other responsibilities (work, etc.)</t>
+  </si>
+  <si>
+    <t>Including hours spent during weekdays and weekends, about how many hours did you spend on face-to-face activities with your children 0-5 in this household during the last 7 days? Enter the total number of hours. If none, enter 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Including hours spent during weekdays and weekends, about how many hours did you spend working during the last 7 days? Enter the total number of hours. If none, enter 0 or NA if not working currently. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was your partner's employment status prior to the coronavirus (COVID-19) Pandemic? If you do not have a partner, please select not applicable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your partner's current employment status? If you do not have a partner, please select not applicable. </t>
+  </si>
+  <si>
+    <t>• Working
+• Unemployed or laid off
+• Temporarily out of work or furloughed
+• Other
+• Not applicable</t>
+  </si>
+  <si>
+    <t>[If yes to children in K-12]
+Including hours spent during weekdays and weekends, about how many hours did you spend on teaching activities with your school-aged child(ren) in this household during the last 7 days? Enter the total number of hours. If none, enter 0.</t>
   </si>
 </sst>
 </file>
@@ -1463,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="98" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="98" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1489,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1506,10 +1517,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1521,10 +1532,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1538,10 +1549,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1555,10 +1566,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -1572,10 +1583,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1589,10 +1600,10 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1606,10 +1617,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="128" x14ac:dyDescent="0.2">
@@ -1623,10 +1634,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="240" x14ac:dyDescent="0.2">
@@ -1640,10 +1651,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1657,10 +1668,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="119" x14ac:dyDescent="0.2">
@@ -1674,7 +1685,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1686,7 +1697,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1700,7 +1711,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -1714,7 +1725,7 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="192" x14ac:dyDescent="0.2">
@@ -1728,1783 +1739,1845 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="192" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="192" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="256" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="272" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="224" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="256" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="272" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="272" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="C52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="208" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="C53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="395" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="208" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="395" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="C55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="395" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="395" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="224" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="224" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="B56" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D57" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="224" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="224" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="D61" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="C62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="C63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="C64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="C65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="160" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="128" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="224" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="C77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="128" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="112" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C78" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="C84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="C85" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="D87" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="D89" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="50" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="C90" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="50" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+      <c r="C92" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B93" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+      <c r="C94" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="C95" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>195</v>
+        <v>60</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B103" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E96" s="2" t="s">
+    </row>
+    <row r="105" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E97" s="2" t="s">
+    <row r="107" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E98" s="2" t="s">
+    <row r="108" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="109" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="C109" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="96" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D110" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="C112" s="1" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E115" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="116" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>153</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B116" s="2"/>
       <c r="C116" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B117" s="2"/>
       <c r="C117" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B118" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>215</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E119" s="2"/>
     </row>
     <row r="120" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>151</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B121" s="2"/>
       <c r="C121" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="D122" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>160</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>215</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>215</v>
+      <c r="C133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FollowUp.xlsx
+++ b/Data/FollowUp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FBA7A6-6455-264B-8B50-AD831C91EAFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B52431-4672-0648-9A91-0079DA141C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="980" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="258">
   <si>
     <t>Question</t>
   </si>
@@ -55,11 +55,6 @@
     <t>Health &amp; Healthcare</t>
   </si>
   <si>
-    <t>•  Yes
-•  No
-•  I don't know</t>
-  </si>
-  <si>
     <t>Have you missed a well-baby/well-child check-up since the coronavirus (COVID-19) pandemic began?</t>
   </si>
   <si>
@@ -73,15 +68,6 @@
 [Asked of all children]</t>
   </si>
   <si>
-    <t>• Cost
-• Unable to get time away from work
-• Inability to find childcare
-• Concern over exposure to coronavirus (COVID-19)
-• Caring for family members
-• Vaccine hesistancy
-• Other, please describe [Free text]</t>
-  </si>
-  <si>
     <t>Core vs. Special Topic</t>
   </si>
   <si>
@@ -89,10 +75,6 @@
   </si>
   <si>
     <t>Special Topic</t>
-  </si>
-  <si>
-    <t>The next set of questinos are related to your experience with the COVID-19 virus.
-Instructions: Please answer each quesstion to the best of your ability. All questions are optional. Coronavirus is also known as COVID-19, and refers to the global pandemic occurring in late 2019 and throughout 2020</t>
   </si>
   <si>
     <t>COVID-19 (Parent health/Well-being)</t>
@@ -125,17 +107,6 @@
   </si>
   <si>
     <t>Parenting Stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic began
-• I often felt like I could not handle things very well </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic began, 
-• being a parent is manageable, and any problems are easily solved </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you feel you could benefit from additional resources and supports on parenting and how best to support your child’s development? </t>
   </si>
   <si>
     <t xml:space="preserve">• 1 – No I did not feel supported 
@@ -228,22 +199,6 @@
 •  Were you ever called an insulting and derogatory term because of your race or ethnicity?</t>
   </si>
   <si>
-    <t>Prior to the coronavirus (COVID-19) pandemic,
-Did you talk to your children about challenges they may face because of their race or ethnicity?</t>
-  </si>
-  <si>
-    <t>Prior to the coronavirus (COVID-19) pandemic,
-Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
-  </si>
-  <si>
-    <t>Since the coronavirus (COVID-19) pandemic,
-Did you talk to your children about challenges they may face because of their race or ethnicity?</t>
-  </si>
-  <si>
-    <t>Since the coronavirus (COVID-19) pandemic,
-Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
-  </si>
-  <si>
     <t>RISER</t>
   </si>
   <si>
@@ -352,38 +307,18 @@
 •  None of the above</t>
   </si>
   <si>
-    <t>Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your first child (the oldest) then select "Yes" for the next question to pop up hidden blocks for more children</t>
-  </si>
-  <si>
     <t>Child Behavior Problems</t>
   </si>
   <si>
-    <t>Please fill out this form to reflect your view of the child's (within the 0-5 age range) behavior even if other people might not agree. Below is a list of items that describe children. Please select the answer which best fits your child's behavior in the last week.
-Fussy or defiant...</t>
-  </si>
-  <si>
-    <t>Below is a list of items that describe children. Please select the answer which best fits your child's behavior in the last week.
-Too fearful or anxious…</t>
-  </si>
-  <si>
     <t>How old is this child (your oldest in 0-5 age range)?</t>
   </si>
   <si>
     <t>[Select age] Range: 0-24 months, 3 years, 4 years, 5 years, less than 6 years</t>
   </si>
   <si>
-    <t>Do you have more children that are between 0 and 5 years old?</t>
-  </si>
-  <si>
     <t>Child Development (Child Health/Well-Being)</t>
   </si>
   <si>
-    <t>Currently, do you have any concerns about your child's learning or development?</t>
-  </si>
-  <si>
-    <t>Currently, do you have any concerns about your child's behavior?</t>
-  </si>
-  <si>
     <t>Instructions: The following questions are for you to let us know anything else that you or your family may be experiencing during the coronavirus COVID-19 Pandemic and are completely optional.</t>
   </si>
   <si>
@@ -394,9 +329,6 @@
   </si>
   <si>
     <t>What is helping you and your family the most right now?</t>
-  </si>
-  <si>
-    <t>Is there anything else you would like to tell us about you and your family's experiences during the COVID-19 pandemic?</t>
   </si>
   <si>
     <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information?</t>
@@ -410,10 +342,6 @@
 Perceived Discrimination, Race and Health in South Africa: Findings from the South Africa Stress and Health Study. Social Science and Medicine, 2008; 67: 441-452.</t>
   </si>
   <si>
-    <t>Modified by RAPID Team and RISER Team 
-Race in America 2019: Public has negative views of the country’s racial progress; more than half say Trump has made race relations worse. Washington, DC: Pew Research Center.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Developed by RAPID Team </t>
   </si>
   <si>
@@ -433,9 +361,6 @@
   </si>
   <si>
     <t>PSIIV-SF</t>
-  </si>
-  <si>
-    <t>PSOC</t>
   </si>
   <si>
     <t>NIH Toolbox Item Bank v2.0</t>
@@ -450,20 +375,6 @@
   <si>
     <t>Do you currently get free or reduced lunches for your child(ren)? Select all that apply
 Example: School Lunch and Breakfast Assistance Program</t>
-  </si>
-  <si>
-    <t>•	Yes, I have access to free food resources
-•	No, but I know where/how I can access free food resources
-•	No, I am not eligible for free food resources
-•	Unsure</t>
-  </si>
-  <si>
-    <t>•	Yes, my child(ren) receive(s) free or reduced lunches
-•	No, my child does not receive free or reduced lunches, but they are available
-•	No, free or reduced lunches are not available for my children
-•	No, but I plan on getting free or reduced lunches for my children soon
-•	No, I don't know how to access this resource
-•	Does not apply</t>
   </si>
   <si>
     <t>RAPID Team Modified from Economic Harship Questionnaire</t>
@@ -596,9 +507,6 @@
   </si>
   <si>
     <t xml:space="preserve">•	Yes                                                                                  •	No                                                                          •	Unsure  </t>
-  </si>
-  <si>
-    <t>Now that the school year has started, we would like you to think about what resources would make things easier for you to support them. This could be technology, better internet access, more time, support etc. If you have older children who are of school age, what are the resources that you wish you had (or need) in order to support your child’s education?</t>
   </si>
   <si>
     <t xml:space="preserve"> • Health or Medical Services (ex. Vaccine programs, counseling, STD testing etc.)
@@ -938,21 +846,6 @@
 • No</t>
   </si>
   <si>
-    <t>What year is 4 years from now (2020)?</t>
-  </si>
-  <si>
-    <t>What year is 1 year from now (2020)?</t>
-  </si>
-  <si>
-    <t>What year was 4 years ago?</t>
-  </si>
-  <si>
-    <t>What year is 10 years from now (2020)?</t>
-  </si>
-  <si>
-    <t>What month will we be in next month?</t>
-  </si>
-  <si>
     <t>Free text</t>
   </si>
   <si>
@@ -985,18 +878,10 @@
     <t xml:space="preserve">Special Topic </t>
   </si>
   <si>
-    <t xml:space="preserve">•  Not at all
-• Somewhat                                                            • Very much
-</t>
-  </si>
-  <si>
     <t>•  Not at all
 • Somewhat                                                            • Very much</t>
   </si>
   <si>
-    <t>Many parents are also primarily responsible for their younger children’s early learning. If this is true of you, what additional resources would be helpful to make your child’s educational experience successful?  This could be toys, books, adult attention etc. </t>
-  </si>
-  <si>
     <t>RAPID Modified</t>
   </si>
   <si>
@@ -1007,14 +892,6 @@
   </si>
   <si>
     <t>Have you stopped working since January 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•Yes, left my job, still not working currently  
-• Yes, left my job, but working again now  
-• Yes, took a temporary leave, still not working 
-• Yes, took a temporary leave, but working again 
-•No, still working  
-• No, I was not working before Jan </t>
   </si>
   <si>
     <t xml:space="preserve">[Display This Question:
@@ -1056,9 +933,6 @@
 Or Have you stopped working since January 1? = Yes, took a temporary leave, but working again now]                                                                                             What is your main reason for not working for pay or profit? (Select only one answer). I did not work because:</t>
   </si>
   <si>
-    <t xml:space="preserve">These questions are about your child's (within the 0-5 age range) development and behavior. Think about what you could expect of other children the same age, and tell us how much each statement applies to your child.  </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">[Display this question If Thinking about the past 12 months, did any of your family members go without health insurance at... = Yes, someone in my family has been uninsured]                                                                     How many family members </t>
     </r>
@@ -1146,9 +1020,6 @@
     <t>[Display this question if "Currently do you use any of the following? Any type of center-based care, such as pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school (Please do not include Kindergarten) = No] Currently, what types of childcare do you use at least 5 hours per week? (Select all that apply)</t>
   </si>
   <si>
-    <t xml:space="preserve">•	Paid or unpaid care by a relative, friend or neighbor in my home                                           •	Paid or unpaid care by a relative, friend, or neighbor in their                                                       •	Paid care by a professional child care provider in my home                                                                       •	Paid care by a professional childcare provider outside of my                                                                •	None of the above                                           •	Other, please describe:                                               </t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Has your child(ren) missed a scheduled vaccine this year? </t>
   </si>
@@ -1156,9 +1027,6 @@
     <t>Have you ever delayed having your child get a shot for reasons other than illness or allergy? Select all that apply</t>
   </si>
   <si>
-    <t>Health</t>
-  </si>
-  <si>
     <t xml:space="preserve">•	Yes, prior to the COVID-19 pandemic (prior to 2020)                                                      •	Yes,since the COVID-19 pandemic (2020 and later)                                                                    •	No                                                                          •	I don't know </t>
   </si>
   <si>
@@ -1179,15 +1047,6 @@
   </si>
   <si>
     <t xml:space="preserve">COVID-19  </t>
-  </si>
-  <si>
-    <t>Do you personally know anyone in the U.S. who… Has been officially diagnosed as having COVID-19 by a health care provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you personally know anyone in the U.S. who… Has been hospitalized or died as a result of having COVID-19 </t>
-  </si>
-  <si>
-    <t>•  Yes</t>
   </si>
   <si>
     <t>Currently, is your family supporting other people who you did not provide support before COVID-19?</t>
@@ -1204,141 +1063,6 @@
 • Not supporting anyone outside immediate family</t>
   </si>
   <si>
-    <t>• Once per week
-• Twice per week
-• 3-5 times per week
-• 6-10 times per week
-• More than 10 times per week
-• This has not happened
-• N/A</t>
-  </si>
-  <si>
-    <t>Family Conflict Special Topics</t>
-  </si>
-  <si>
-    <t>Developed by RAPID Team
-- Interpersonal Conflict: Conflict Tactics Scale, Revised, Short form CTS25
-- Harsh Parenting: Conflict Tactics Scale Parent-Child and Iowa Family Interaction Rating Scales (WH)
-- Child Behavior: Early Childhood Behavior Questionnaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructions: The following set of questions will ask about how people in your household are getting along. Some of the questions ask about families’ conflict, which is normal and common. None of the questions in this survey meet the threshold for reporting maltreatment. Our goal is to understand how coronavirus (COVID-19) pandemic is impacting family functioning, across all of the families who take this survey. Families have many different ways of trying to settle their differences. This is a list of things that might happen when your family has differences. Please mark how many times each of these things happened in the last week. Please also think about a typical week in your family’s life prior to the coronavirus (COVID-19) pandemic, and mark how many times each of these things happened. If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”.   
-In the last week...
-• I insulted or swore or shouted or yelled at my partner  
-• I shouted, yelled, or screamed at my child  
-• I criticized or said mean things to my child 
-• I felt like throwing things or slamming doors 
-• My partner insulted or swore or shouted or yelled at me 
-• My partner shouted, yelled, or screamed at my child 
-• My partner criticized my child  
-• My child had a temper tantrum  
-• My child argued with me  
-• My child argued with my partner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the last week…                                                                                                     • My partner shouted, yelled, or screamed at my child 
-• My partner criticized my child  
-• My child had a temper tantrum  
-• My child argued with me  
-• My child argued with my partner </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In a typical week </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>prior to</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the COVID-19 Pandemic...
-• I insulted or swore or shouted or yelled at my partner  
-• I shouted, yelled, or screamed at my child  
-• I criticized or said mean things to my child 
-• I felt like throwing things or slamming doors 
-• My partner insulted or swore or shouted or yelled at me 
-• My partner shouted, yelled, or screamed at my child 
-• My partner criticized my child  
-• My child had a temper tantrum  
-• My child argued with me  
-• My child argued with my partner </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">In a typical week prior to the COVID-19 Pandemic…                                         • My partner shouted, yelled, or screamed at my child 
-• My partner criticized my child  
-• My child had a temper tantrum  
-• My child argued with me  
-• My child argued with my partner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you and your child have spent time together, how often did you do the following? If one of these things did not occur, then select “This has not happened" for that question. If a question does not apply to your family, then select “NA”. 
-In the last week…
-• I let my child know I really care about them 
-• I was loving and affectionate toward my child 
-• I was supportive and understanding toward my child 
-• I told my child I love them </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In a typical week prior to the COVID-19 Pandemic...
-• I let my child know I really care about them 
-• I was loving and affectionate toward my child 
-• I was supportive and understanding toward my child 
-• I told my child I love them </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Think about the sources of conflict for your family. Which of the following would help decrease conflict the most right now? </t>
-  </si>
-  <si>
-    <t>• being confident that my family has health insurance 
-• not being so socially isolated 
-• having lower levels of worry and stress 
-• knowing we can pay for food  
-• knowing we can pay my rent/mortgage/housing expenses 
-• knowing my/our job is secure 
-• being able to meet my child’s social and emotional needs 
-• knowing we have access to childcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developed by RAPID-EC Team </t>
-  </si>
-  <si>
-    <t>What's the most important thing you have done for your children?</t>
-  </si>
-  <si>
-    <t>Currently, is there anything that is helping you reduce conflict with your spouse/partner?</t>
-  </si>
-  <si>
-    <t>Currently, is there anything that is helping you reduce conflict with your child/children?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Once per week
-• Twice per week
-• 3-5 times per week
-• 6-10 times per week
-• More than 10 times per week
-• This has not happened
-• Not applicable </t>
-  </si>
-  <si>
-    <t>RAPID Team Modified
-Iowa Family Interaction Rating Scales (WH)</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4957941/
 https://www.ipsos.com/en-us/news-polls/axios-ipsos-coronavirus-index</t>
   </si>
@@ -1350,20 +1074,348 @@
     <t>RAPID TEAM</t>
   </si>
   <si>
-    <t>RAPID Developed</t>
-  </si>
-  <si>
     <t xml:space="preserve">RAPID Team modified from the National Survey of Early Care and Education (NSECE) </t>
   </si>
   <si>
-    <t>Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your first child (from the oldest to the youngest in the 0-5 age range) then select "Yes" for the next question to pop up hidden blocks for more children</t>
+    <t xml:space="preserve">• Paid or unpaid care by a relative, friend or neighbor in my home                                           • Paid or unpaid care by a relative, friend, or neighbor in their                                                       • Paid care by a professional child care provider in my home                                                                       • Paid care by a professional childcare provider outside of my                                                                • None of the above                                           • Other, please describe:                                               </t>
+  </si>
+  <si>
+    <t>• Cost
+• Unable to get time away from work
+• Inability to find childcare
+• Concern over exposure to coronavirus (COVID-19)
+• Caring for family members
+• Vaccine hesistancy                                                 • Doctor or clinic cancelled appointment
+• Other, please describe [Free text]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you personally know anyone in the U.S. who…                                                  • Has been officially diagnosed as having COVID-19 by a health care provider         • Has been hospitalized or died as a result of having COVID-19 </t>
+  </si>
+  <si>
+    <t>What year is 2 years from now (2020)?</t>
+  </si>
+  <si>
+    <t>What year is 7 year from now (2020)?</t>
+  </si>
+  <si>
+    <t>What year was 5 years ago?</t>
+  </si>
+  <si>
+    <t>What year is 3 years from now (2020)?</t>
+  </si>
+  <si>
+    <t>What month are we currently in?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic began
+• I often felt like I could not handle things very well                                                 • being a parent is manageable, and any problems are easily solved                     •Do you feel you could benefit from additional resources and supports on parenting and how best to support your child’s development? </t>
+  </si>
+  <si>
+    <t>Prior to the coronavirus (COVID-19) pandemic,
+•Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                       •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
+  </si>
+  <si>
+    <t>Since the coronavirus (COVID-19) pandemic,
+•Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                       •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
+  </si>
+  <si>
+    <t>Which of the following applies to you?</t>
+  </si>
+  <si>
+    <t>• I have paid sick leave, and it has NOT increased sicne the COVID-19 Pandemic
+• I have paid sick leave and it HAS increased since the COVID-19 Pandemic
+• I don't have paid sick leave
+• Does not apply</t>
+  </si>
+  <si>
+    <t>•Yes, left my job, still not working currently  
+• Yes, left my job, but working again now  
+• Yes, took a temporary leave, still not working 
+• Yes, took a temporary leave, but working again 
+•No, still working  
+• No, I was not working before Jan 1</t>
+  </si>
+  <si>
+    <t>What methods are you using or do you plan to use to cover your expenses? Select all that apply</t>
+  </si>
+  <si>
+    <t>•  By putting it on my credit card and paying it off in full at the next statement
+•  By putting it on my credit card and paying it off over time
+•  With the money currently in my checking/savings account or with cash
+•  Using a bank loan or line of credit
+•  By borrowing froma friend or family member
+•  Using a payday loan, deposit advance, or overdraft
+•  By selling something
+•  By using my stimulus payment
+•  By asking my landlord or mortgage provider for an extension                                                    •  I wouldn't be able to pay for the expense right now
+•  Other</t>
+  </si>
+  <si>
+    <t>These next questions are about the food eaten in your household and whether you were able to afford the food you need.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Often true
+•	Sometimes true
+•	Never true
+•	Don’t know </t>
+  </si>
+  <si>
+    <t>"U.S. Household Food Security Survey Module: Six-Item Short Form Economic Research Service, USDA
+September 2012"</t>
+  </si>
+  <si>
+    <t>Material Hardship</t>
+  </si>
+  <si>
+    <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household prior to the coronavirus (COVID-19) pandemic                                                                             •“The food that we bought just didn’t last, and we didn’t have money to get more."	                                                                                                                       •“We couldn’t afford to eat balanced meals.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes
+• No
+• Don’t know </t>
+  </si>
+  <si>
+    <t>U.S. Household Food Security Survey Module: Six-Item Short Form Economic Research Service, USDA
+September 2012</t>
+  </si>
+  <si>
+    <t>[Display this question if "Prior to the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food?" = Yes] How often did this happen—almost every month, some months but not every month, or in only 1 or 2 months?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Almost every month
+•	Some months but not every month
+•	Only 1 or 2 months
+•	Don’t know </t>
+  </si>
+  <si>
+    <t>Prior to the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Yes
+•	No
+•	Don’t know </t>
+  </si>
+  <si>
+    <t>Prior to the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t>For these following statements, please indicate whether the statement was often true, sometimes true, or never true for your household since the coronavirus (COVID-19) pandemic.                                                                             •“The food that we bought just didn’t last, and we didn’t have money to get more."	                                                                                                                       •“We couldn’t afford to eat balanced meals.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Almost every month
+• Some months but not every month
+• Only 1 or 2 months
+• Don’t know </t>
+  </si>
+  <si>
+    <t>[Display this question if "Since the coronavirus (COVID-19) pandemic, did you or other adults in your household ever cut the size of your meals or skip meals because there wasn't enough money for food?" = Yes] How often did this happen—almost every month, some months but not every month, or in only 1 or 2 months?</t>
+  </si>
+  <si>
+    <t>Since the coronavirus (COVID-19) pandemic, did you ever eat less than you felt you should because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t>Since the coronavirus (COVID-19) pandemic, were you ever hungry but didn't eat because there wasn't enough money for food?</t>
+  </si>
+  <si>
+    <t>• Yes, I have access to free food resources
+• No, but I know where/how I can access free food resources
+• No, I am not eligible for free food resources
+• Unsure</t>
+  </si>
+  <si>
+    <t>• Yes, my child(ren) receive(s) free or reduced lunches
+• No, my child does not receive free or reduced lunches, but they are available
+• No, free or reduced lunches are not available for my children
+• No, but I plan on getting free or reduced lunches for my children soon
+• No, I don't know how to access this resource
+• Does not apply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the next set of statements, please think about the last 30 days. </t>
+  </si>
+  <si>
+    <t>In the last 30 days, your household did not pay the full amount of the rent or mortgage or was late with a payment because your household could not afford to pay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Yes
+•	No
+•	Not applicable </t>
+  </si>
+  <si>
+    <t>Material Hardship Special Topic</t>
+  </si>
+  <si>
+    <t>Provided by Urban Institute
+Modified from the U.S. Census Bureau's Household Pulse Survey</t>
+  </si>
+  <si>
+    <t>In the last 30 days, you did not have enough money to pay for food to feed your household.</t>
+  </si>
+  <si>
+    <t>In the last 30 days, you were evicted from the place you rented.</t>
+  </si>
+  <si>
+    <t>Provided by Urban Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the last 30 days, your mortgage (for the home you lived in and owned) was foreclosed on. </t>
+  </si>
+  <si>
+    <t>In the last 30 days, your household was not able to pay the full amount of the gas, oil, or electricity bills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the last 30 days, the gas or electric company turned off service, or the oil company would not deliver oil. </t>
+  </si>
+  <si>
+    <t>For the next set of questions, please think about the upcoming month.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How worried are you about your household not being able to pay the full amount of the rent or mortgage or being late with a payment because your household cannot afford to pay in the next month? </t>
+  </si>
+  <si>
+    <t>•	Not at all worried
+•	Slightly worried
+•	Somewhat worried
+•	Very worried
+•	Extremely worried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How worried are you about having enough money to pay for food to feed your household in the next month? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you rent the place you currently live, how worried are you about being evicted in the next month? </t>
+  </si>
+  <si>
+    <t>If you own the home where you currently live, how worried are you about your mortgage being foreclosed on in the next month?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How worried are you about household not being able to pay the full amount of the gas, oil, or electricity bills in the next month?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How worried are you about the gas or electric company turning off service, or the oil company not delivering oil in the next month?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Not true
+•	Somewhat/sometimes true
+•	Often true/very true
+</t>
+  </si>
+  <si>
+    <t>Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your first child (the oldest), then select "Yes" for the next question to pop up hidden blocks for more child(ren).                                             Please fill out this form to reflect your view of the child’s (within the 0-5 age range) behavior even if other people might not agree. Below is a list of items that describe children. Please select the answer which best fits your child's behavior in the last week.  
+•Fussy or defiant...                                                                                                       •Too fearful or anxious…</t>
+  </si>
+  <si>
+    <t>Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your first child (the oldest), then select "Yes" for the next question to pop up hidden blocks for more child(ren).                                         These questions are about your child's (within the 0-5 age range) development and behavior. Think about what you could expect of other children the same age, and tell us how much each statement applies to your child.                           • Currently, do you have any concerns about your child's learning or development?                                                                                                              • Currently, do you have any concerns about your child's behavior?</t>
+  </si>
+  <si>
+    <t>What would you like your elected officials or other policymakers (for example, U.S. Congress, state and local leaders) to know about how your family is doing or what you need during this time ?</t>
+  </si>
+  <si>
+    <t>Would you be interested in continuing to an additional 5 minute survey for an extra $2 gift card?</t>
+  </si>
+  <si>
+    <t>Supplemental</t>
+  </si>
+  <si>
+    <t>https://www.healthaffairs.org/doi/full/10.1377/hlthaff.2020.00863</t>
+  </si>
+  <si>
+    <t>Policy Working Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulled this question from this article:  
+https://www.rand.org/pubs/research_reports/RRA308-3.html 
+ALP survey conducted May 1-6, 2020 
+</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                  Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your second child (from the oldest to the youngest in the 0-5 age range) then select "Yes" for the next question to pop up hidden blocks for more children.                                                                                                     Please fill out this form to reflect your view of the child’s (within the 0-5 age range) behavior even if other people might not agree. Below is a list of items that describe children. Please select the answer which best fits your child's behavior in the last week.                                                                                           •Fussy or defiant...                                                                                                       •Too fearful or anxious…</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                       How old is your second child?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your third child (from the oldest to the youngest in the 0-5 age range) then select "Yes" for the next question to pop up hidden blocks for more children.                                                                                                     Please fill out this form to reflect your view of the child’s (within the 0-5 age range) behavior even if other people might not agree. Below is a list of items that describe children. Please select the answer which best fits your child's behavior in the last week.                                                                                           •Fussy or defiant...                                                                                                       •Too fearful or anxious…</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                    How old is your third child?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                  Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your fourth child (from the oldest to the youngest in the 0-5 age range) then select "Yes" for the next question to pop up hidden blocks for more children.                                                                                                     Please fill out this form to reflect your view of the child’s (within the 0-5 age range) behavior even if other people might not agree. Below is a list of items that describe children. Please select the answer which best fits your child's behavior in the last week.                                                                                           •Fussy or defiant...                                                                                                       •Too fearful or anxious…</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                     How old is your fourth child?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your fifth child (from the oldest to the youngest in the 0-5 age range) then select "Yes" for the next question to pop up hidden blocks for more children.                                                                                                     Please fill out this form to reflect your view of the child’s (within the 0-5 age range) behavior even if other people might not agree. Below is a list of items that describe children. Please select the answer which best fits your child's behavior in the last week.                                                                                           •Fussy or defiant...                                                                                                       •Too fearful or anxious…</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                    How old is your fifth child?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your second child (from the oldest to the youngest), then select "Yes" for the next question to pop up hidden blocks for more child(ren).                                         These questions are about your child's (within the 0-5 age range) development and behavior. Think about what you could expect of other children the same age, and tell us how much each statement applies to your child.                           • Currently, do you have any concerns about your child's learning or development?                                                                                                              • Currently, do you have any concerns about your child's behavior?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   How old is your second child?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your third child (from the oldest to the youngest), then select "Yes" for the next question to pop up hidden blocks for more child(ren).                                         These questions are about your child's (within the 0-5 age range) development and behavior. Think about what you could expect of other children the same age, and tell us how much each statement applies to your child.                           • Currently, do you have any concerns about your child's learning or development?                                                                                                              • Currently, do you have any concerns about your child's behavior?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   How old is your third child?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your fourth child (from the oldest to the youngest), then select "Yes" for the next question to pop up hidden blocks for more child(ren).                                         These questions are about your child's (within the 0-5 age range) development and behavior. Think about what you could expect of other children the same age, and tell us how much each statement applies to your child.                           • Currently, do you have any concerns about your child's learning or development?                                                                                                              • Currently, do you have any concerns about your child's behavior?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   How old is your fourth child?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   Note: If you have multiple children within the 0-5 age range, please fill out the below questions for your fifth child (from the oldest to the youngest), then select "Yes" for the next question to pop up hidden blocks for more child(ren).                                         These questions are about your child's (within the 0-5 age range) development and behavior. Think about what you could expect of other children the same age, and tell us how much each statement applies to your child.                           • Currently, do you have any concerns about your child's learning or development?                                                                                                              • Currently, do you have any concerns about your child's behavior?</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   How old is your fifth child?</t>
+  </si>
+  <si>
+    <t>Do you have more children that are between 0 and 5 years old?                           [If "Do you have more children that are between 0 and 5 years old?" = No, no more Child Behavior Problems questions asked]</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                        Do you have more children that are between 0 and 5 years old?                          [If "Do you have more children that are between 0 and 5 years old?" = No, no more Child Behavior Problems questions asked]</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                       Do you have more children that are between 0 and 5 years old?                             [If "Do you have more children that are between 0 and 5 years old?" = No, no more Child Behavior Problems questions asked]</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                       Do you have more children that are between 0 and 5 years old?                            [If "Do you have more children that are between 0 and 5 years old?" = No, no more Child Behavior Problems questions asked]</t>
+  </si>
+  <si>
+    <t>Do you have more children that are between 0 and 5 years old?                           [If "Do you have more children that are between 0 and 5 years old?" = No, no more Child Development questions asked]</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   Do you have more children that are between 0 and 5 years old?                                 [If "Do you have more children that are between 0 and 5 years old?" = No, no more Child Development questions asked]</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   Do you have more children that are between 0 and 5 years old?                                  [If "Do you have more children that are between 0 and 5 years old?" = No, no more Child Development questions asked]</t>
+  </si>
+  <si>
+    <t>[Display this question if "Do you have more children that are between 0 and 5 years old? = Yes]                                                                                                   Do you have more children that are between 0 and 5 years old?                                [If "Do you have more children that are between 0 and 5 years old?" = No, no more Child Development questions asked]</t>
+  </si>
+  <si>
+    <t>The next set of questions are related to your experience with the COVID-19 virus.
+Instructions: Please answer each question to the best of your ability. All questions are optional. Coronavirus is also known as COVID-19, and refers to the global pandemic occurring in late 2019 and throughout 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1433,14 +1485,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1463,7 +1507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1509,18 +1553,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1836,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1862,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1879,168 +1953,168 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="175" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="187" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>164</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>114</v>
+      <c r="A6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -2049,1532 +2123,2011 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>187</v>
+        <v>154</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>187</v>
+        <v>154</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="154" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="184" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="166" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="288" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="288" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="288" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="288" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="288" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>17</v>
+      <c r="B31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="187" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>17</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="31" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>154</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="395" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>177</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s">
-        <v>16</v>
+      <c r="C46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>27</v>
+    <row r="47" spans="1:5" ht="76" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" t="s">
-        <v>16</v>
+        <v>39</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="208" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D53" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="C54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="20" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="365" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="335" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="350" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="208" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="395" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="395" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="208" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="208" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="208" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="224" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="D65" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="4" t="s">
+      <c r="B66" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" ht="76" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="C66" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A67" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="B67" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="20" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A68" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="32"/>
+    </row>
+    <row r="69" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="D71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="20" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+      <c r="A73" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="31" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="18"/>
+    </row>
+    <row r="75" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="20" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="20" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="20" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="20" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A79" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="20" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="B80" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="20" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="20" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="20" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="20" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A84" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="20" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="20" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A86" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="28"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+    </row>
+    <row r="88" spans="1:5" s="20" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="20" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="20" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="20" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="20" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="20" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="20" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" s="20" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="20" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="128" x14ac:dyDescent="0.2">
-      <c r="A72" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="365" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="335" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A75" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="176" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="350" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="272" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B96" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="20" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="20" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="20" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="20" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D101" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="91" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
-        <v>122</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="61" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
-        <v>163</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="197" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>81</v>
+        <v>224</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="211" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="179" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A121" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A124" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A127" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="20" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A132" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="8"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" ht="167" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="9"/>
+      <c r="C133" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E74" r:id="rId1" display="https://www.umass.edu/lrrc/sites/default/files/Western%20Mass%20Essential%20Worker%20Survey%20-%20May%202020.pdf" xr:uid="{0CF78C24-A323-2F41-A012-B5E708A2040B}"/>
-    <hyperlink ref="E70" r:id="rId2" xr:uid="{CD9DA8BA-14C8-CA45-B851-61AD0A52DC3B}"/>
-    <hyperlink ref="E77" r:id="rId3" xr:uid="{A9299006-FDE8-E541-B825-B1E41F45E3F9}"/>
+    <hyperlink ref="E60" r:id="rId1" display="https://www.umass.edu/lrrc/sites/default/files/Western%20Mass%20Essential%20Worker%20Survey%20-%20May%202020.pdf" xr:uid="{0CF78C24-A323-2F41-A012-B5E708A2040B}"/>
+    <hyperlink ref="E56" r:id="rId2" xr:uid="{CD9DA8BA-14C8-CA45-B851-61AD0A52DC3B}"/>
+    <hyperlink ref="E63" r:id="rId3" xr:uid="{A9299006-FDE8-E541-B825-B1E41F45E3F9}"/>
+    <hyperlink ref="E57" r:id="rId4" xr:uid="{327731D2-4A5B-9F4D-BF96-34FE7D509614}"/>
+    <hyperlink ref="E55" r:id="rId5" xr:uid="{CFC63A4E-AAEF-6E4A-8F68-725E16074E26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
